--- a/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,79 +452,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>912</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>128</v>
@@ -532,177 +532,409 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>320</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>560</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45397</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>80</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45418</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>192</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45425</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45439</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>560</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45460</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>304</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45467</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45474</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45481</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45495</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>144</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45509</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>400</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45551</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>48</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45558</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>32</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45565</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>192</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45572</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>288</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>272</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
         <v>144</v>
       </c>
     </row>
@@ -717,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,81 +971,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1128</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>480</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>656</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>880</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1424</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>976</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -965,7 +966,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1135,6 +1136,1013 @@
       </c>
       <c r="B22" t="n">
         <v>976</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>413</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.43168026788176</v>
+      </c>
+      <c r="D2" t="n">
+        <v>779.8622815165043</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>402</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.09212415780437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>755.5063702797789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>399</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43.69328829306145</v>
+      </c>
+      <c r="D4" t="n">
+        <v>750.8460508065443</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>396</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.18720275955274</v>
+      </c>
+      <c r="D5" t="n">
+        <v>739.5646792250959</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>393</v>
+      </c>
+      <c r="C6" t="n">
+        <v>42.81293576507756</v>
+      </c>
+      <c r="D6" t="n">
+        <v>762.1153529541472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>387</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.79322990289989</v>
+      </c>
+      <c r="D7" t="n">
+        <v>759.450020376682</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>382</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.93709935290198</v>
+      </c>
+      <c r="D8" t="n">
+        <v>745.7175967843556</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>356</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.90789125252416</v>
+      </c>
+      <c r="D9" t="n">
+        <v>729.3343620760595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-18.34716961785314</v>
+      </c>
+      <c r="D10" t="n">
+        <v>718.8211067961756</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>351</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-34.93104116253176</v>
+      </c>
+      <c r="D11" t="n">
+        <v>730.0984114510791</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>348</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-19.93936015467605</v>
+      </c>
+      <c r="D12" t="n">
+        <v>691.2304999076084</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>345</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8.21486858464888</v>
+      </c>
+      <c r="D13" t="n">
+        <v>745.0358208765069</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>342</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-26.23242665485563</v>
+      </c>
+      <c r="D14" t="n">
+        <v>710.301785073809</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>339</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.21870631839098</v>
+      </c>
+      <c r="D15" t="n">
+        <v>677.4974071411968</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>336</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-9.434664188397294</v>
+      </c>
+      <c r="D16" t="n">
+        <v>679.3922240567549</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-39.12562761336237</v>
+      </c>
+      <c r="D17" t="n">
+        <v>692.8322487460122</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>325</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-65.44269417990544</v>
+      </c>
+      <c r="D18" t="n">
+        <v>703.568699142292</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>320</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-43.24331724522975</v>
+      </c>
+      <c r="D19" t="n">
+        <v>693.1749904497657</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>317</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-32.26587177523196</v>
+      </c>
+      <c r="D20" t="n">
+        <v>677.8939816842723</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>314</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-32.82946223105802</v>
+      </c>
+      <c r="D21" t="n">
+        <v>651.342631821902</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>311</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-66.62575202645844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>691.0273669271616</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>303</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-42.64520269474779</v>
+      </c>
+      <c r="D23" t="n">
+        <v>657.6394549592487</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>300</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-37.20819199084197</v>
+      </c>
+      <c r="D24" t="n">
+        <v>675.6893371927912</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>297</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-53.35920286094024</v>
+      </c>
+      <c r="D25" t="n">
+        <v>654.6620059540086</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>294</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-45.9642407616453</v>
+      </c>
+      <c r="D26" t="n">
+        <v>636.9959179593583</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>291</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-104.0996904082291</v>
+      </c>
+      <c r="D27" t="n">
+        <v>671.2442641492967</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>288</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-54.35097602843091</v>
+      </c>
+      <c r="D28" t="n">
+        <v>668.2863113583636</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>283</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-82.7509675045762</v>
+      </c>
+      <c r="D29" t="n">
+        <v>630.3337288756024</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>280</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-67.49881272099242</v>
+      </c>
+      <c r="D30" t="n">
+        <v>627.4129943831256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>271</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-62.86395098234825</v>
+      </c>
+      <c r="D31" t="n">
+        <v>631.4906131177272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>266</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-72.47048015592652</v>
+      </c>
+      <c r="D32" t="n">
+        <v>649.0445033346593</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>263</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-119.9785964680939</v>
+      </c>
+      <c r="D33" t="n">
+        <v>623.4471750998864</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>260</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-88.08262175102611</v>
+      </c>
+      <c r="D34" t="n">
+        <v>645.9126451791257</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>257</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-80.63436416651722</v>
+      </c>
+      <c r="D35" t="n">
+        <v>612.9143494956437</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>254</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-103.1481939206104</v>
+      </c>
+      <c r="D36" t="n">
+        <v>631.0517723483969</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>252</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-102.7264591283892</v>
+      </c>
+      <c r="D37" t="n">
+        <v>592.5550917738354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>249</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-108.1131830075013</v>
+      </c>
+      <c r="D38" t="n">
+        <v>578.2048644137999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>246</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-109.5309432832492</v>
+      </c>
+      <c r="D39" t="n">
+        <v>583.277036469898</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>243</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-118.7301595721049</v>
+      </c>
+      <c r="D40" t="n">
+        <v>622.3711163658712</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>240</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-114.4900595838692</v>
+      </c>
+      <c r="D41" t="n">
+        <v>582.0914604544917</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>238</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-110.696363319089</v>
+      </c>
+      <c r="D42" t="n">
+        <v>594.1817841017527</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>235</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-153.689085137783</v>
+      </c>
+      <c r="D43" t="n">
+        <v>593.2547798609691</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>232</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-132.9260071330723</v>
+      </c>
+      <c r="D44" t="n">
+        <v>590.2719711837428</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>229</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-119.7312544440371</v>
+      </c>
+      <c r="D45" t="n">
+        <v>583.0540671519844</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>221</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-126.6131553346258</v>
+      </c>
+      <c r="D46" t="n">
+        <v>573.56387092229</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>218</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-157.9937898631366</v>
+      </c>
+      <c r="D47" t="n">
+        <v>561.2214987408386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>212</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-121.0649514618336</v>
+      </c>
+      <c r="D48" t="n">
+        <v>585.1830932146308</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>206</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-150.8455065643812</v>
+      </c>
+      <c r="D49" t="n">
+        <v>576.3733565610969</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>204</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-149.400271081796</v>
+      </c>
+      <c r="D50" t="n">
+        <v>543.1976194155135</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>201</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-156.1833096879146</v>
+      </c>
+      <c r="D51" t="n">
+        <v>585.1931201528608</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>198</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-142.6289844810346</v>
+      </c>
+      <c r="D52" t="n">
+        <v>538.8077823708609</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>195</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-147.2006552786007</v>
+      </c>
+      <c r="D53" t="n">
+        <v>562.677002322769</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>189</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-171.5162386035038</v>
+      </c>
+      <c r="D54" t="n">
+        <v>537.9179119578868</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>184</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-188.4194515076801</v>
+      </c>
+      <c r="D55" t="n">
+        <v>524.4009892747946</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>167</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-187.5242186221897</v>
+      </c>
+      <c r="D56" t="n">
+        <v>521.0679957213746</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>164</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-180.723198664078</v>
+      </c>
+      <c r="D57" t="n">
+        <v>535.8828645681903</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>161</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-233.0961780375264</v>
+      </c>
+      <c r="D58" t="n">
+        <v>522.1865242789758</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>158</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-211.0485354308513</v>
+      </c>
+      <c r="D59" t="n">
+        <v>518.4484754355709</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>155</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-198.9305991450502</v>
+      </c>
+      <c r="D60" t="n">
+        <v>505.8845531811442</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>153</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-198.7979964492282</v>
+      </c>
+      <c r="D61" t="n">
+        <v>489.8020361024155</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>150</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-185.2519354151383</v>
+      </c>
+      <c r="D62" t="n">
+        <v>511.5453413017725</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>147</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-217.4210045132811</v>
+      </c>
+      <c r="D63" t="n">
+        <v>509.3488508930305</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>144</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-204.2053242120054</v>
+      </c>
+      <c r="D64" t="n">
+        <v>519.8800334748614</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>141</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-210.2320848470873</v>
+      </c>
+      <c r="D65" t="n">
+        <v>506.6930490888126</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>139</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-224.4268435573545</v>
+      </c>
+      <c r="D66" t="n">
+        <v>482.2088871124491</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-240.2628759877772</v>
+      </c>
+      <c r="D67" t="n">
+        <v>503.7657649484183</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>133</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-248.4792157509626</v>
+      </c>
+      <c r="D68" t="n">
+        <v>492.269744223363</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>130</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-225.0374902790714</v>
+      </c>
+      <c r="D69" t="n">
+        <v>495.3807748892797</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>127</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-244.6286949623754</v>
+      </c>
+      <c r="D70" t="n">
+        <v>475.3064783621427</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BHTMXMRQ_po_data.xlsx
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1168,16 +1168,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1186,12 +1176,6 @@
       <c r="B2" t="n">
         <v>413</v>
       </c>
-      <c r="C2" t="n">
-        <v>70.43168026788176</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779.8622815165043</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1200,12 +1184,6 @@
       <c r="B3" t="n">
         <v>402</v>
       </c>
-      <c r="C3" t="n">
-        <v>18.09212415780437</v>
-      </c>
-      <c r="D3" t="n">
-        <v>755.5063702797789</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1214,12 +1192,6 @@
       <c r="B4" t="n">
         <v>399</v>
       </c>
-      <c r="C4" t="n">
-        <v>43.69328829306145</v>
-      </c>
-      <c r="D4" t="n">
-        <v>750.8460508065443</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1228,12 +1200,6 @@
       <c r="B5" t="n">
         <v>396</v>
       </c>
-      <c r="C5" t="n">
-        <v>24.18720275955274</v>
-      </c>
-      <c r="D5" t="n">
-        <v>739.5646792250959</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1242,12 +1208,6 @@
       <c r="B6" t="n">
         <v>393</v>
       </c>
-      <c r="C6" t="n">
-        <v>42.81293576507756</v>
-      </c>
-      <c r="D6" t="n">
-        <v>762.1153529541472</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1256,12 +1216,6 @@
       <c r="B7" t="n">
         <v>387</v>
       </c>
-      <c r="C7" t="n">
-        <v>16.79322990289989</v>
-      </c>
-      <c r="D7" t="n">
-        <v>759.450020376682</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1270,12 +1224,6 @@
       <c r="B8" t="n">
         <v>382</v>
       </c>
-      <c r="C8" t="n">
-        <v>29.93709935290198</v>
-      </c>
-      <c r="D8" t="n">
-        <v>745.7175967843556</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1284,12 +1232,6 @@
       <c r="B9" t="n">
         <v>356</v>
       </c>
-      <c r="C9" t="n">
-        <v>11.90789125252416</v>
-      </c>
-      <c r="D9" t="n">
-        <v>729.3343620760595</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1298,12 +1240,6 @@
       <c r="B10" t="n">
         <v>353</v>
       </c>
-      <c r="C10" t="n">
-        <v>-18.34716961785314</v>
-      </c>
-      <c r="D10" t="n">
-        <v>718.8211067961756</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1312,12 +1248,6 @@
       <c r="B11" t="n">
         <v>351</v>
       </c>
-      <c r="C11" t="n">
-        <v>-34.93104116253176</v>
-      </c>
-      <c r="D11" t="n">
-        <v>730.0984114510791</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1326,12 +1256,6 @@
       <c r="B12" t="n">
         <v>348</v>
       </c>
-      <c r="C12" t="n">
-        <v>-19.93936015467605</v>
-      </c>
-      <c r="D12" t="n">
-        <v>691.2304999076084</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1340,12 +1264,6 @@
       <c r="B13" t="n">
         <v>345</v>
       </c>
-      <c r="C13" t="n">
-        <v>8.21486858464888</v>
-      </c>
-      <c r="D13" t="n">
-        <v>745.0358208765069</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1354,12 +1272,6 @@
       <c r="B14" t="n">
         <v>342</v>
       </c>
-      <c r="C14" t="n">
-        <v>-26.23242665485563</v>
-      </c>
-      <c r="D14" t="n">
-        <v>710.301785073809</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1368,12 +1280,6 @@
       <c r="B15" t="n">
         <v>339</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.21870631839098</v>
-      </c>
-      <c r="D15" t="n">
-        <v>677.4974071411968</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1382,12 +1288,6 @@
       <c r="B16" t="n">
         <v>336</v>
       </c>
-      <c r="C16" t="n">
-        <v>-9.434664188397294</v>
-      </c>
-      <c r="D16" t="n">
-        <v>679.3922240567549</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1396,12 +1296,6 @@
       <c r="B17" t="n">
         <v>331</v>
       </c>
-      <c r="C17" t="n">
-        <v>-39.12562761336237</v>
-      </c>
-      <c r="D17" t="n">
-        <v>692.8322487460122</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1410,12 +1304,6 @@
       <c r="B18" t="n">
         <v>325</v>
       </c>
-      <c r="C18" t="n">
-        <v>-65.44269417990544</v>
-      </c>
-      <c r="D18" t="n">
-        <v>703.568699142292</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1424,12 +1312,6 @@
       <c r="B19" t="n">
         <v>320</v>
       </c>
-      <c r="C19" t="n">
-        <v>-43.24331724522975</v>
-      </c>
-      <c r="D19" t="n">
-        <v>693.1749904497657</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1438,12 +1320,6 @@
       <c r="B20" t="n">
         <v>317</v>
       </c>
-      <c r="C20" t="n">
-        <v>-32.26587177523196</v>
-      </c>
-      <c r="D20" t="n">
-        <v>677.8939816842723</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1452,12 +1328,6 @@
       <c r="B21" t="n">
         <v>314</v>
       </c>
-      <c r="C21" t="n">
-        <v>-32.82946223105802</v>
-      </c>
-      <c r="D21" t="n">
-        <v>651.342631821902</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1466,12 +1336,6 @@
       <c r="B22" t="n">
         <v>311</v>
       </c>
-      <c r="C22" t="n">
-        <v>-66.62575202645844</v>
-      </c>
-      <c r="D22" t="n">
-        <v>691.0273669271616</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1480,12 +1344,6 @@
       <c r="B23" t="n">
         <v>303</v>
       </c>
-      <c r="C23" t="n">
-        <v>-42.64520269474779</v>
-      </c>
-      <c r="D23" t="n">
-        <v>657.6394549592487</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1494,12 +1352,6 @@
       <c r="B24" t="n">
         <v>300</v>
       </c>
-      <c r="C24" t="n">
-        <v>-37.20819199084197</v>
-      </c>
-      <c r="D24" t="n">
-        <v>675.6893371927912</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1508,12 +1360,6 @@
       <c r="B25" t="n">
         <v>297</v>
       </c>
-      <c r="C25" t="n">
-        <v>-53.35920286094024</v>
-      </c>
-      <c r="D25" t="n">
-        <v>654.6620059540086</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1522,12 +1368,6 @@
       <c r="B26" t="n">
         <v>294</v>
       </c>
-      <c r="C26" t="n">
-        <v>-45.9642407616453</v>
-      </c>
-      <c r="D26" t="n">
-        <v>636.9959179593583</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1536,12 +1376,6 @@
       <c r="B27" t="n">
         <v>291</v>
       </c>
-      <c r="C27" t="n">
-        <v>-104.0996904082291</v>
-      </c>
-      <c r="D27" t="n">
-        <v>671.2442641492967</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1550,12 +1384,6 @@
       <c r="B28" t="n">
         <v>288</v>
       </c>
-      <c r="C28" t="n">
-        <v>-54.35097602843091</v>
-      </c>
-      <c r="D28" t="n">
-        <v>668.2863113583636</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1564,12 +1392,6 @@
       <c r="B29" t="n">
         <v>283</v>
       </c>
-      <c r="C29" t="n">
-        <v>-82.7509675045762</v>
-      </c>
-      <c r="D29" t="n">
-        <v>630.3337288756024</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1578,12 +1400,6 @@
       <c r="B30" t="n">
         <v>280</v>
       </c>
-      <c r="C30" t="n">
-        <v>-67.49881272099242</v>
-      </c>
-      <c r="D30" t="n">
-        <v>627.4129943831256</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1592,12 +1408,6 @@
       <c r="B31" t="n">
         <v>271</v>
       </c>
-      <c r="C31" t="n">
-        <v>-62.86395098234825</v>
-      </c>
-      <c r="D31" t="n">
-        <v>631.4906131177272</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1606,12 +1416,6 @@
       <c r="B32" t="n">
         <v>266</v>
       </c>
-      <c r="C32" t="n">
-        <v>-72.47048015592652</v>
-      </c>
-      <c r="D32" t="n">
-        <v>649.0445033346593</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1620,12 +1424,6 @@
       <c r="B33" t="n">
         <v>263</v>
       </c>
-      <c r="C33" t="n">
-        <v>-119.9785964680939</v>
-      </c>
-      <c r="D33" t="n">
-        <v>623.4471750998864</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1634,12 +1432,6 @@
       <c r="B34" t="n">
         <v>260</v>
       </c>
-      <c r="C34" t="n">
-        <v>-88.08262175102611</v>
-      </c>
-      <c r="D34" t="n">
-        <v>645.9126451791257</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1648,12 +1440,6 @@
       <c r="B35" t="n">
         <v>257</v>
       </c>
-      <c r="C35" t="n">
-        <v>-80.63436416651722</v>
-      </c>
-      <c r="D35" t="n">
-        <v>612.9143494956437</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1662,12 +1448,6 @@
       <c r="B36" t="n">
         <v>254</v>
       </c>
-      <c r="C36" t="n">
-        <v>-103.1481939206104</v>
-      </c>
-      <c r="D36" t="n">
-        <v>631.0517723483969</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1676,12 +1456,6 @@
       <c r="B37" t="n">
         <v>252</v>
       </c>
-      <c r="C37" t="n">
-        <v>-102.7264591283892</v>
-      </c>
-      <c r="D37" t="n">
-        <v>592.5550917738354</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1690,12 +1464,6 @@
       <c r="B38" t="n">
         <v>249</v>
       </c>
-      <c r="C38" t="n">
-        <v>-108.1131830075013</v>
-      </c>
-      <c r="D38" t="n">
-        <v>578.2048644137999</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1704,12 +1472,6 @@
       <c r="B39" t="n">
         <v>246</v>
       </c>
-      <c r="C39" t="n">
-        <v>-109.5309432832492</v>
-      </c>
-      <c r="D39" t="n">
-        <v>583.277036469898</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1718,12 +1480,6 @@
       <c r="B40" t="n">
         <v>243</v>
       </c>
-      <c r="C40" t="n">
-        <v>-118.7301595721049</v>
-      </c>
-      <c r="D40" t="n">
-        <v>622.3711163658712</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1732,12 +1488,6 @@
       <c r="B41" t="n">
         <v>240</v>
       </c>
-      <c r="C41" t="n">
-        <v>-114.4900595838692</v>
-      </c>
-      <c r="D41" t="n">
-        <v>582.0914604544917</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1746,12 +1496,6 @@
       <c r="B42" t="n">
         <v>238</v>
       </c>
-      <c r="C42" t="n">
-        <v>-110.696363319089</v>
-      </c>
-      <c r="D42" t="n">
-        <v>594.1817841017527</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1760,12 +1504,6 @@
       <c r="B43" t="n">
         <v>235</v>
       </c>
-      <c r="C43" t="n">
-        <v>-153.689085137783</v>
-      </c>
-      <c r="D43" t="n">
-        <v>593.2547798609691</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1774,12 +1512,6 @@
       <c r="B44" t="n">
         <v>232</v>
       </c>
-      <c r="C44" t="n">
-        <v>-132.9260071330723</v>
-      </c>
-      <c r="D44" t="n">
-        <v>590.2719711837428</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1788,12 +1520,6 @@
       <c r="B45" t="n">
         <v>229</v>
       </c>
-      <c r="C45" t="n">
-        <v>-119.7312544440371</v>
-      </c>
-      <c r="D45" t="n">
-        <v>583.0540671519844</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1802,12 +1528,6 @@
       <c r="B46" t="n">
         <v>221</v>
       </c>
-      <c r="C46" t="n">
-        <v>-126.6131553346258</v>
-      </c>
-      <c r="D46" t="n">
-        <v>573.56387092229</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1816,12 +1536,6 @@
       <c r="B47" t="n">
         <v>218</v>
       </c>
-      <c r="C47" t="n">
-        <v>-157.9937898631366</v>
-      </c>
-      <c r="D47" t="n">
-        <v>561.2214987408386</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1830,12 +1544,6 @@
       <c r="B48" t="n">
         <v>212</v>
       </c>
-      <c r="C48" t="n">
-        <v>-121.0649514618336</v>
-      </c>
-      <c r="D48" t="n">
-        <v>585.1830932146308</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1844,12 +1552,6 @@
       <c r="B49" t="n">
         <v>206</v>
       </c>
-      <c r="C49" t="n">
-        <v>-150.8455065643812</v>
-      </c>
-      <c r="D49" t="n">
-        <v>576.3733565610969</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1858,12 +1560,6 @@
       <c r="B50" t="n">
         <v>204</v>
       </c>
-      <c r="C50" t="n">
-        <v>-149.400271081796</v>
-      </c>
-      <c r="D50" t="n">
-        <v>543.1976194155135</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1872,12 +1568,6 @@
       <c r="B51" t="n">
         <v>201</v>
       </c>
-      <c r="C51" t="n">
-        <v>-156.1833096879146</v>
-      </c>
-      <c r="D51" t="n">
-        <v>585.1931201528608</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1886,12 +1576,6 @@
       <c r="B52" t="n">
         <v>198</v>
       </c>
-      <c r="C52" t="n">
-        <v>-142.6289844810346</v>
-      </c>
-      <c r="D52" t="n">
-        <v>538.8077823708609</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1900,12 +1584,6 @@
       <c r="B53" t="n">
         <v>195</v>
       </c>
-      <c r="C53" t="n">
-        <v>-147.2006552786007</v>
-      </c>
-      <c r="D53" t="n">
-        <v>562.677002322769</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1914,12 +1592,6 @@
       <c r="B54" t="n">
         <v>189</v>
       </c>
-      <c r="C54" t="n">
-        <v>-171.5162386035038</v>
-      </c>
-      <c r="D54" t="n">
-        <v>537.9179119578868</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1928,12 +1600,6 @@
       <c r="B55" t="n">
         <v>184</v>
       </c>
-      <c r="C55" t="n">
-        <v>-188.4194515076801</v>
-      </c>
-      <c r="D55" t="n">
-        <v>524.4009892747946</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1942,12 +1608,6 @@
       <c r="B56" t="n">
         <v>167</v>
       </c>
-      <c r="C56" t="n">
-        <v>-187.5242186221897</v>
-      </c>
-      <c r="D56" t="n">
-        <v>521.0679957213746</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1956,12 +1616,6 @@
       <c r="B57" t="n">
         <v>164</v>
       </c>
-      <c r="C57" t="n">
-        <v>-180.723198664078</v>
-      </c>
-      <c r="D57" t="n">
-        <v>535.8828645681903</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1970,12 +1624,6 @@
       <c r="B58" t="n">
         <v>161</v>
       </c>
-      <c r="C58" t="n">
-        <v>-233.0961780375264</v>
-      </c>
-      <c r="D58" t="n">
-        <v>522.1865242789758</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1984,12 +1632,6 @@
       <c r="B59" t="n">
         <v>158</v>
       </c>
-      <c r="C59" t="n">
-        <v>-211.0485354308513</v>
-      </c>
-      <c r="D59" t="n">
-        <v>518.4484754355709</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1998,12 +1640,6 @@
       <c r="B60" t="n">
         <v>155</v>
       </c>
-      <c r="C60" t="n">
-        <v>-198.9305991450502</v>
-      </c>
-      <c r="D60" t="n">
-        <v>505.8845531811442</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2012,12 +1648,6 @@
       <c r="B61" t="n">
         <v>153</v>
       </c>
-      <c r="C61" t="n">
-        <v>-198.7979964492282</v>
-      </c>
-      <c r="D61" t="n">
-        <v>489.8020361024155</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2026,12 +1656,6 @@
       <c r="B62" t="n">
         <v>150</v>
       </c>
-      <c r="C62" t="n">
-        <v>-185.2519354151383</v>
-      </c>
-      <c r="D62" t="n">
-        <v>511.5453413017725</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2040,12 +1664,6 @@
       <c r="B63" t="n">
         <v>147</v>
       </c>
-      <c r="C63" t="n">
-        <v>-217.4210045132811</v>
-      </c>
-      <c r="D63" t="n">
-        <v>509.3488508930305</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2054,12 +1672,6 @@
       <c r="B64" t="n">
         <v>144</v>
       </c>
-      <c r="C64" t="n">
-        <v>-204.2053242120054</v>
-      </c>
-      <c r="D64" t="n">
-        <v>519.8800334748614</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2068,12 +1680,6 @@
       <c r="B65" t="n">
         <v>141</v>
       </c>
-      <c r="C65" t="n">
-        <v>-210.2320848470873</v>
-      </c>
-      <c r="D65" t="n">
-        <v>506.6930490888126</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2082,12 +1688,6 @@
       <c r="B66" t="n">
         <v>139</v>
       </c>
-      <c r="C66" t="n">
-        <v>-224.4268435573545</v>
-      </c>
-      <c r="D66" t="n">
-        <v>482.2088871124491</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2096,12 +1696,6 @@
       <c r="B67" t="n">
         <v>136</v>
       </c>
-      <c r="C67" t="n">
-        <v>-240.2628759877772</v>
-      </c>
-      <c r="D67" t="n">
-        <v>503.7657649484183</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2110,12 +1704,6 @@
       <c r="B68" t="n">
         <v>133</v>
       </c>
-      <c r="C68" t="n">
-        <v>-248.4792157509626</v>
-      </c>
-      <c r="D68" t="n">
-        <v>492.269744223363</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2124,12 +1712,6 @@
       <c r="B69" t="n">
         <v>130</v>
       </c>
-      <c r="C69" t="n">
-        <v>-225.0374902790714</v>
-      </c>
-      <c r="D69" t="n">
-        <v>495.3807748892797</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2137,12 +1719,6 @@
       </c>
       <c r="B70" t="n">
         <v>127</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-244.6286949623754</v>
-      </c>
-      <c r="D70" t="n">
-        <v>475.3064783621427</v>
       </c>
     </row>
   </sheetData>
